--- a/Alex/excel_output_file.xlsx
+++ b/Alex/excel_output_file.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>sample1.txt</t>
+          <t>sample.txt.txt</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -512,43 +512,6 @@
         <v>0</v>
       </c>
       <c r="K2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>sample2.txt</t>
-        </is>
-      </c>
-      <c r="B3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Alex/excel_output_file.xlsx
+++ b/Alex/excel_output_file.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -481,7 +481,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>sample.txt.txt</t>
+          <t>docx_example.docx</t>
         </is>
       </c>
       <c r="B2" t="b">

--- a/Alex/excel_output_file.xlsx
+++ b/Alex/excel_output_file.xlsx
@@ -1,36 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="510" windowWidth="21735" windowHeight="10170"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,13 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -343,15 +408,151 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="A1:O5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>filename</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>solid, restful, oop</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>azure, aws, oop</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>debug, troubleshoot, improve, diagnose</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>.net, c#, sql, azure</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>leadership, mentorship</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>visual studio, visual basic, git</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>agile, scrum, cicd</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>design, concept</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>github, gitlab, bitbucket, jira, asana, trello</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>management, project</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>docx_example1.docx</t>
+        </is>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>docx_example2.docx</t>
+        </is>
+      </c>
+      <c r="B3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Alex/excel_output_file.xlsx
+++ b/Alex/excel_output_file.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,6 +552,117 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pdf_example1.pdf</t>
+        </is>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sample1.txt</t>
+        </is>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sample2.txt</t>
+        </is>
+      </c>
+      <c r="B6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Alex/excel_output_file.xlsx
+++ b/Alex/excel_output_file.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -589,80 +589,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>sample1.txt</t>
-        </is>
-      </c>
-      <c r="B5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>sample2.txt</t>
-        </is>
-      </c>
-      <c r="B6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" t="b">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Alex/excel_output_file.xlsx
+++ b/Alex/excel_output_file.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,35 +481,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>docx_example1.docx</t>
+          <t>Adarsh_Sehgal_resume (1).pdf</t>
         </is>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
       </c>
       <c r="J2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
@@ -518,74 +518,4625 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>docx_example2.docx</t>
+          <t>Adel+Software+Senior+chamberlain.pdf</t>
         </is>
       </c>
       <c r="B3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>pdf_example1.pdf</t>
+          <t>Adnan-DotNet&amp;SQL+-Updated.docx</t>
         </is>
       </c>
       <c r="B4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Ahmed Aljaberi’s Resume 2.pdf</t>
+        </is>
+      </c>
+      <c r="B5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Akash+Viradiya+-+Resume.pdf</t>
+        </is>
+      </c>
+      <c r="B6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AkashAkbari21.pdf</t>
+        </is>
+      </c>
+      <c r="B7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AlexanderNetukResume.pdf</t>
+        </is>
+      </c>
+      <c r="B8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Alexander_Kosorukov_Resume_2023.docx</t>
+        </is>
+      </c>
+      <c r="B9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Alfie+Guilas+Resume+2023.pdf</t>
+        </is>
+      </c>
+      <c r="B10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ALI+SIROUSPOUR_20231109.pdf</t>
+        </is>
+      </c>
+      <c r="B11" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Amir+Shirazi.pdf</t>
+        </is>
+      </c>
+      <c r="B12" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Andrey+Belykh.docx</t>
+        </is>
+      </c>
+      <c r="B13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AntonyDevadasan.docx</t>
+        </is>
+      </c>
+      <c r="B14" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ArchitectureResume_(2023).docx</t>
+        </is>
+      </c>
+      <c r="B15" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AridamanSinghResume.pdf</t>
+        </is>
+      </c>
+      <c r="B16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ArunResume.pdf</t>
+        </is>
+      </c>
+      <c r="B17" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Athira+Thulaseedharan+Sheela+2023.resume.pdf</t>
+        </is>
+      </c>
+      <c r="B18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Aurora+resume.pdf</t>
+        </is>
+      </c>
+      <c r="B19" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AyeshaAbdulBasith_Resume.pdf</t>
+        </is>
+      </c>
+      <c r="B20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Azza+Tarhini+Resume.doc.pdf</t>
+        </is>
+      </c>
+      <c r="B21" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>chandragiri-Resume-1.docx</t>
+        </is>
+      </c>
+      <c r="B22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>CV+Giovanni+Sanchez (1).docx</t>
+        </is>
+      </c>
+      <c r="B23" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" t="b">
+        <v>1</v>
+      </c>
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>CV-Behnam+Izadi.pdf</t>
+        </is>
+      </c>
+      <c r="B24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>CV_OT.pdf</t>
+        </is>
+      </c>
+      <c r="B25" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>CV_Rafael_Gil_2023_SI.docx</t>
+        </is>
+      </c>
+      <c r="B26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>cv_randika_se_iii.pdf</t>
+        </is>
+      </c>
+      <c r="B27" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27" t="b">
+        <v>1</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="b">
+        <v>1</v>
+      </c>
+      <c r="K27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Debdurba_Roy_Resume_FullStack.pdf</t>
+        </is>
+      </c>
+      <c r="B28" t="b">
+        <v>0</v>
+      </c>
+      <c r="C28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Drupad_Software+Developer_Resume.pdf</t>
+        </is>
+      </c>
+      <c r="B29" t="b">
+        <v>0</v>
+      </c>
+      <c r="C29" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" t="b">
+        <v>1</v>
+      </c>
+      <c r="K29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Elnaz+Refahi-.pdf</t>
+        </is>
+      </c>
+      <c r="B30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" t="b">
+        <v>1</v>
+      </c>
+      <c r="K30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Eugene_Shcherbo_Resume.pdf</t>
+        </is>
+      </c>
+      <c r="B31" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" t="b">
+        <v>1</v>
+      </c>
+      <c r="I31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Filip+Buduru+-+Resume+2023.pdf</t>
+        </is>
+      </c>
+      <c r="B32" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Final_Resume.pdf</t>
+        </is>
+      </c>
+      <c r="B33" t="b">
+        <v>0</v>
+      </c>
+      <c r="C33" t="b">
+        <v>0</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" t="b">
+        <v>1</v>
+      </c>
+      <c r="K33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Gancheng+Luo+(Andy)+v6.pdf</t>
+        </is>
+      </c>
+      <c r="B34" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" t="b">
+        <v>1</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" t="b">
+        <v>1</v>
+      </c>
+      <c r="K34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Haotian_Zhou_resume.pdf</t>
+        </is>
+      </c>
+      <c r="B35" t="b">
+        <v>0</v>
+      </c>
+      <c r="C35" t="b">
+        <v>1</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Harpreet_Kaur.docx</t>
+        </is>
+      </c>
+      <c r="B36" t="b">
+        <v>0</v>
+      </c>
+      <c r="C36" t="b">
+        <v>1</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Harsha+SrDot+Net+Developer.docx</t>
+        </is>
+      </c>
+      <c r="B37" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" t="b">
+        <v>1</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37" t="b">
+        <v>1</v>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37" t="b">
+        <v>1</v>
+      </c>
+      <c r="J37" t="b">
+        <v>1</v>
+      </c>
+      <c r="K37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Henry+Jiang+Resume (1).docx</t>
+        </is>
+      </c>
+      <c r="B38" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" t="b">
+        <v>1</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" t="b">
+        <v>1</v>
+      </c>
+      <c r="I38" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" t="b">
+        <v>1</v>
+      </c>
+      <c r="K38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>HimaniShah.pdf</t>
+        </is>
+      </c>
+      <c r="B39" t="b">
+        <v>0</v>
+      </c>
+      <c r="C39" t="b">
+        <v>1</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
+      <c r="F39" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" t="b">
+        <v>1</v>
+      </c>
+      <c r="I39" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" t="b">
+        <v>1</v>
+      </c>
+      <c r="K39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Hou_Steven.docx</t>
+        </is>
+      </c>
+      <c r="B40" t="b">
+        <v>0</v>
+      </c>
+      <c r="C40" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" t="b">
+        <v>1</v>
+      </c>
+      <c r="F40" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Jasmeen_Saraan_Resume.docx</t>
+        </is>
+      </c>
+      <c r="B41" t="b">
+        <v>0</v>
+      </c>
+      <c r="C41" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" t="b">
+        <v>1</v>
+      </c>
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" t="b">
+        <v>1</v>
+      </c>
+      <c r="K41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>JelodarCVbO.pdf</t>
+        </is>
+      </c>
+      <c r="B42" t="b">
+        <v>0</v>
+      </c>
+      <c r="C42" t="b">
+        <v>1</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="b">
+        <v>1</v>
+      </c>
+      <c r="F42" t="b">
+        <v>0</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="b">
+        <v>1</v>
+      </c>
+      <c r="K42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Jerad_Godreault_Resume_2023.pdf</t>
+        </is>
+      </c>
+      <c r="B43" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43" t="b">
+        <v>1</v>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Jon+Kanie+resume+(2023-06-08)+[j.na].pdf</t>
+        </is>
+      </c>
+      <c r="B44" t="b">
+        <v>0</v>
+      </c>
+      <c r="C44" t="b">
+        <v>1</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="b">
+        <v>1</v>
+      </c>
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" t="b">
+        <v>1</v>
+      </c>
+      <c r="I44" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" t="b">
+        <v>1</v>
+      </c>
+      <c r="K44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>KanakaShyam_Fullstack_Resume.pdf</t>
+        </is>
+      </c>
+      <c r="B45" t="b">
+        <v>0</v>
+      </c>
+      <c r="C45" t="b">
+        <v>1</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" t="b">
+        <v>0</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" t="b">
+        <v>1</v>
+      </c>
+      <c r="I45" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45" t="b">
+        <v>1</v>
+      </c>
+      <c r="K45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>KayKim_Resume.pdf</t>
+        </is>
+      </c>
+      <c r="B46" t="b">
+        <v>0</v>
+      </c>
+      <c r="C46" t="b">
+        <v>1</v>
+      </c>
+      <c r="D46" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J46" t="b">
+        <v>1</v>
+      </c>
+      <c r="K46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Kevin+Ryans.pdf</t>
+        </is>
+      </c>
+      <c r="B47" t="b">
+        <v>0</v>
+      </c>
+      <c r="C47" t="b">
+        <v>0</v>
+      </c>
+      <c r="D47" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" t="b">
+        <v>1</v>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="b">
+        <v>1</v>
+      </c>
+      <c r="J47" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>KNKeerthana.pdf</t>
+        </is>
+      </c>
+      <c r="B48" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" t="b">
+        <v>1</v>
+      </c>
+      <c r="D48" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" t="b">
+        <v>1</v>
+      </c>
+      <c r="F48" t="b">
+        <v>0</v>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" t="b">
+        <v>1</v>
+      </c>
+      <c r="K48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>KomalKumariQATesting.pdf</t>
+        </is>
+      </c>
+      <c r="B49" t="b">
+        <v>0</v>
+      </c>
+      <c r="C49" t="b">
+        <v>0</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" t="b">
+        <v>0</v>
+      </c>
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Kumar_Shivam_resume.pdf</t>
+        </is>
+      </c>
+      <c r="B50" t="b">
+        <v>0</v>
+      </c>
+      <c r="C50" t="b">
+        <v>1</v>
+      </c>
+      <c r="D50" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" t="b">
+        <v>1</v>
+      </c>
+      <c r="F50" t="b">
+        <v>0</v>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" t="b">
+        <v>1</v>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" t="b">
+        <v>1</v>
+      </c>
+      <c r="K50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Lee_James_Resume.pdf</t>
+        </is>
+      </c>
+      <c r="B51" t="b">
+        <v>0</v>
+      </c>
+      <c r="C51" t="b">
+        <v>1</v>
+      </c>
+      <c r="D51" t="b">
+        <v>1</v>
+      </c>
+      <c r="E51" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" t="b">
+        <v>0</v>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" t="b">
+        <v>1</v>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" t="b">
+        <v>1</v>
+      </c>
+      <c r="K51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Lishi.Zhou-Resume.docx</t>
+        </is>
+      </c>
+      <c r="B52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C52" t="b">
+        <v>0</v>
+      </c>
+      <c r="D52" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52" t="b">
+        <v>0</v>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" t="b">
+        <v>0</v>
+      </c>
+      <c r="K52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>MahirKhandaker-Resume-FullStack.pdf</t>
+        </is>
+      </c>
+      <c r="B53" t="b">
+        <v>0</v>
+      </c>
+      <c r="C53" t="b">
+        <v>1</v>
+      </c>
+      <c r="D53" t="b">
+        <v>1</v>
+      </c>
+      <c r="E53" t="b">
+        <v>0</v>
+      </c>
+      <c r="F53" t="b">
+        <v>0</v>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" t="b">
+        <v>1</v>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
+      <c r="J53" t="b">
+        <v>1</v>
+      </c>
+      <c r="K53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Marcelo-Medina-Resume-V231001.pdf</t>
+        </is>
+      </c>
+      <c r="B54" t="b">
+        <v>0</v>
+      </c>
+      <c r="C54" t="b">
+        <v>1</v>
+      </c>
+      <c r="D54" t="b">
+        <v>1</v>
+      </c>
+      <c r="E54" t="b">
+        <v>1</v>
+      </c>
+      <c r="F54" t="b">
+        <v>0</v>
+      </c>
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54" t="b">
+        <v>1</v>
+      </c>
+      <c r="J54" t="b">
+        <v>1</v>
+      </c>
+      <c r="K54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Michael+Szyszko+Resume.pdf</t>
+        </is>
+      </c>
+      <c r="B55" t="b">
+        <v>0</v>
+      </c>
+      <c r="C55" t="b">
+        <v>0</v>
+      </c>
+      <c r="D55" t="b">
+        <v>1</v>
+      </c>
+      <c r="E55" t="b">
+        <v>0</v>
+      </c>
+      <c r="F55" t="b">
+        <v>0</v>
+      </c>
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" t="b">
+        <v>1</v>
+      </c>
+      <c r="I55" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" t="b">
+        <v>1</v>
+      </c>
+      <c r="K55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Mihir+-+FullStack+Developer_Resume.docx</t>
+        </is>
+      </c>
+      <c r="B56" t="b">
+        <v>0</v>
+      </c>
+      <c r="C56" t="b">
+        <v>1</v>
+      </c>
+      <c r="D56" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56" t="b">
+        <v>0</v>
+      </c>
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" t="b">
+        <v>1</v>
+      </c>
+      <c r="I56" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56" t="b">
+        <v>1</v>
+      </c>
+      <c r="K56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>MohamedElliethy.pdf</t>
+        </is>
+      </c>
+      <c r="B57" t="b">
+        <v>0</v>
+      </c>
+      <c r="C57" t="b">
+        <v>1</v>
+      </c>
+      <c r="D57" t="b">
+        <v>1</v>
+      </c>
+      <c r="E57" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57" t="b">
+        <v>1</v>
+      </c>
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="b">
+        <v>1</v>
+      </c>
+      <c r="J57" t="b">
+        <v>1</v>
+      </c>
+      <c r="K57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Mohammed_Rehan_Reshamwala.docx</t>
+        </is>
+      </c>
+      <c r="B58" t="b">
+        <v>0</v>
+      </c>
+      <c r="C58" t="b">
+        <v>1</v>
+      </c>
+      <c r="D58" t="b">
+        <v>1</v>
+      </c>
+      <c r="E58" t="b">
+        <v>1</v>
+      </c>
+      <c r="F58" t="b">
+        <v>1</v>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" t="b">
+        <v>1</v>
+      </c>
+      <c r="I58" t="b">
+        <v>1</v>
+      </c>
+      <c r="J58" t="b">
+        <v>1</v>
+      </c>
+      <c r="K58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Muhammad+Asad+Naeem+-+Resume.pdf</t>
+        </is>
+      </c>
+      <c r="B59" t="b">
+        <v>0</v>
+      </c>
+      <c r="C59" t="b">
+        <v>1</v>
+      </c>
+      <c r="D59" t="b">
+        <v>1</v>
+      </c>
+      <c r="E59" t="b">
+        <v>1</v>
+      </c>
+      <c r="F59" t="b">
+        <v>1</v>
+      </c>
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" t="b">
+        <v>1</v>
+      </c>
+      <c r="I59" t="b">
+        <v>1</v>
+      </c>
+      <c r="J59" t="b">
+        <v>1</v>
+      </c>
+      <c r="K59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Nandana (1).docx</t>
+        </is>
+      </c>
+      <c r="B60" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" t="b">
+        <v>1</v>
+      </c>
+      <c r="D60" t="b">
+        <v>1</v>
+      </c>
+      <c r="E60" t="b">
+        <v>1</v>
+      </c>
+      <c r="F60" t="b">
+        <v>0</v>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" t="b">
+        <v>1</v>
+      </c>
+      <c r="I60" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60" t="b">
+        <v>1</v>
+      </c>
+      <c r="K60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Navaneetha-Krishnan-jagadeesan-Resume.pdf</t>
+        </is>
+      </c>
+      <c r="B61" t="b">
+        <v>0</v>
+      </c>
+      <c r="C61" t="b">
+        <v>1</v>
+      </c>
+      <c r="D61" t="b">
+        <v>1</v>
+      </c>
+      <c r="E61" t="b">
+        <v>1</v>
+      </c>
+      <c r="F61" t="b">
+        <v>0</v>
+      </c>
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61" t="b">
+        <v>1</v>
+      </c>
+      <c r="J61" t="b">
+        <v>0</v>
+      </c>
+      <c r="K61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>NaveenKumarBokku_Resume.docx</t>
+        </is>
+      </c>
+      <c r="B62" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" t="b">
+        <v>1</v>
+      </c>
+      <c r="D62" t="b">
+        <v>1</v>
+      </c>
+      <c r="E62" t="b">
+        <v>1</v>
+      </c>
+      <c r="F62" t="b">
+        <v>1</v>
+      </c>
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62" t="b">
+        <v>1</v>
+      </c>
+      <c r="I62" t="b">
+        <v>1</v>
+      </c>
+      <c r="J62" t="b">
+        <v>0</v>
+      </c>
+      <c r="K62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Nawal_Hussain_Resume.pdf</t>
+        </is>
+      </c>
+      <c r="B63" t="b">
+        <v>0</v>
+      </c>
+      <c r="C63" t="b">
+        <v>0</v>
+      </c>
+      <c r="D63" t="b">
+        <v>1</v>
+      </c>
+      <c r="E63" t="b">
+        <v>0</v>
+      </c>
+      <c r="F63" t="b">
+        <v>0</v>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" t="b">
+        <v>1</v>
+      </c>
+      <c r="I63" t="b">
+        <v>1</v>
+      </c>
+      <c r="J63" t="b">
+        <v>1</v>
+      </c>
+      <c r="K63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Neel+Radadiya_Resume.pdf</t>
+        </is>
+      </c>
+      <c r="B64" t="b">
+        <v>0</v>
+      </c>
+      <c r="C64" t="b">
+        <v>1</v>
+      </c>
+      <c r="D64" t="b">
+        <v>1</v>
+      </c>
+      <c r="E64" t="b">
+        <v>1</v>
+      </c>
+      <c r="F64" t="b">
+        <v>0</v>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" t="b">
+        <v>1</v>
+      </c>
+      <c r="I64" t="b">
+        <v>1</v>
+      </c>
+      <c r="J64" t="b">
+        <v>1</v>
+      </c>
+      <c r="K64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Neel_Resume_Software+Architect_2.pdf</t>
+        </is>
+      </c>
+      <c r="B65" t="b">
+        <v>0</v>
+      </c>
+      <c r="C65" t="b">
+        <v>1</v>
+      </c>
+      <c r="D65" t="b">
+        <v>1</v>
+      </c>
+      <c r="E65" t="b">
+        <v>0</v>
+      </c>
+      <c r="F65" t="b">
+        <v>1</v>
+      </c>
+      <c r="G65" t="b">
+        <v>0</v>
+      </c>
+      <c r="H65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I65" t="b">
+        <v>1</v>
+      </c>
+      <c r="J65" t="b">
+        <v>0</v>
+      </c>
+      <c r="K65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Neil+Rodrigues+Resume+-+Software+Engineer.pdf</t>
+        </is>
+      </c>
+      <c r="B66" t="b">
+        <v>0</v>
+      </c>
+      <c r="C66" t="b">
+        <v>0</v>
+      </c>
+      <c r="D66" t="b">
+        <v>0</v>
+      </c>
+      <c r="E66" t="b">
+        <v>0</v>
+      </c>
+      <c r="F66" t="b">
+        <v>0</v>
+      </c>
+      <c r="G66" t="b">
+        <v>0</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="b">
+        <v>0</v>
+      </c>
+      <c r="J66" t="b">
+        <v>0</v>
+      </c>
+      <c r="K66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Oleg+Kushynskyy+-+Senior+Software+Engineer.pdf</t>
+        </is>
+      </c>
+      <c r="B67" t="b">
+        <v>0</v>
+      </c>
+      <c r="C67" t="b">
+        <v>1</v>
+      </c>
+      <c r="D67" t="b">
+        <v>1</v>
+      </c>
+      <c r="E67" t="b">
+        <v>1</v>
+      </c>
+      <c r="F67" t="b">
+        <v>0</v>
+      </c>
+      <c r="G67" t="b">
+        <v>0</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="b">
+        <v>1</v>
+      </c>
+      <c r="J67" t="b">
+        <v>0</v>
+      </c>
+      <c r="K67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Oleg+Susarov.docx</t>
+        </is>
+      </c>
+      <c r="B68" t="b">
+        <v>0</v>
+      </c>
+      <c r="C68" t="b">
+        <v>1</v>
+      </c>
+      <c r="D68" t="b">
+        <v>1</v>
+      </c>
+      <c r="E68" t="b">
+        <v>1</v>
+      </c>
+      <c r="F68" t="b">
+        <v>1</v>
+      </c>
+      <c r="G68" t="b">
+        <v>0</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="b">
+        <v>1</v>
+      </c>
+      <c r="J68" t="b">
+        <v>0</v>
+      </c>
+      <c r="K68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Oscar_Shum_Resume.pdf</t>
+        </is>
+      </c>
+      <c r="B69" t="b">
+        <v>0</v>
+      </c>
+      <c r="C69" t="b">
+        <v>0</v>
+      </c>
+      <c r="D69" t="b">
+        <v>0</v>
+      </c>
+      <c r="E69" t="b">
+        <v>0</v>
+      </c>
+      <c r="F69" t="b">
+        <v>0</v>
+      </c>
+      <c r="G69" t="b">
+        <v>0</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" t="b">
+        <v>0</v>
+      </c>
+      <c r="K69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Parvinder-Resume.docx</t>
+        </is>
+      </c>
+      <c r="B70" t="b">
+        <v>0</v>
+      </c>
+      <c r="C70" t="b">
+        <v>1</v>
+      </c>
+      <c r="D70" t="b">
+        <v>0</v>
+      </c>
+      <c r="E70" t="b">
+        <v>1</v>
+      </c>
+      <c r="F70" t="b">
+        <v>0</v>
+      </c>
+      <c r="G70" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70" t="b">
+        <v>1</v>
+      </c>
+      <c r="I70" t="b">
+        <v>1</v>
+      </c>
+      <c r="J70" t="b">
+        <v>1</v>
+      </c>
+      <c r="K70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>PHYU+PHYU_TOE_Resume.docx</t>
+        </is>
+      </c>
+      <c r="B71" t="b">
+        <v>0</v>
+      </c>
+      <c r="C71" t="b">
+        <v>1</v>
+      </c>
+      <c r="D71" t="b">
+        <v>1</v>
+      </c>
+      <c r="E71" t="b">
+        <v>1</v>
+      </c>
+      <c r="F71" t="b">
+        <v>0</v>
+      </c>
+      <c r="G71" t="b">
+        <v>1</v>
+      </c>
+      <c r="H71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" t="b">
+        <v>1</v>
+      </c>
+      <c r="J71" t="b">
+        <v>0</v>
+      </c>
+      <c r="K71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>POOJA_PROFESSIONAL+SUMMARY.docx</t>
+        </is>
+      </c>
+      <c r="B72" t="b">
+        <v>0</v>
+      </c>
+      <c r="C72" t="b">
+        <v>1</v>
+      </c>
+      <c r="D72" t="b">
+        <v>1</v>
+      </c>
+      <c r="E72" t="b">
+        <v>1</v>
+      </c>
+      <c r="F72" t="b">
+        <v>0</v>
+      </c>
+      <c r="G72" t="b">
+        <v>1</v>
+      </c>
+      <c r="H72" t="b">
+        <v>1</v>
+      </c>
+      <c r="I72" t="b">
+        <v>1</v>
+      </c>
+      <c r="J72" t="b">
+        <v>1</v>
+      </c>
+      <c r="K72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Prachi+Dalwadi_Resume.docx</t>
+        </is>
+      </c>
+      <c r="B73" t="b">
+        <v>0</v>
+      </c>
+      <c r="C73" t="b">
+        <v>1</v>
+      </c>
+      <c r="D73" t="b">
+        <v>1</v>
+      </c>
+      <c r="E73" t="b">
+        <v>1</v>
+      </c>
+      <c r="F73" t="b">
+        <v>1</v>
+      </c>
+      <c r="G73" t="b">
+        <v>1</v>
+      </c>
+      <c r="H73" t="b">
+        <v>1</v>
+      </c>
+      <c r="I73" t="b">
+        <v>1</v>
+      </c>
+      <c r="J73" t="b">
+        <v>1</v>
+      </c>
+      <c r="K73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>PRINCE+ULUKA+CV.docx</t>
+        </is>
+      </c>
+      <c r="B74" t="b">
+        <v>0</v>
+      </c>
+      <c r="C74" t="b">
+        <v>1</v>
+      </c>
+      <c r="D74" t="b">
+        <v>0</v>
+      </c>
+      <c r="E74" t="b">
+        <v>1</v>
+      </c>
+      <c r="F74" t="b">
+        <v>0</v>
+      </c>
+      <c r="G74" t="b">
+        <v>1</v>
+      </c>
+      <c r="H74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I74" t="b">
+        <v>1</v>
+      </c>
+      <c r="J74" t="b">
+        <v>0</v>
+      </c>
+      <c r="K74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Prithwiraj+Das-Resume (1).pdf</t>
+        </is>
+      </c>
+      <c r="B75" t="b">
+        <v>0</v>
+      </c>
+      <c r="C75" t="b">
+        <v>1</v>
+      </c>
+      <c r="D75" t="b">
+        <v>0</v>
+      </c>
+      <c r="E75" t="b">
+        <v>1</v>
+      </c>
+      <c r="F75" t="b">
+        <v>1</v>
+      </c>
+      <c r="G75" t="b">
+        <v>1</v>
+      </c>
+      <c r="H75" t="b">
+        <v>1</v>
+      </c>
+      <c r="I75" t="b">
+        <v>1</v>
+      </c>
+      <c r="J75" t="b">
+        <v>1</v>
+      </c>
+      <c r="K75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Prithwiraj+Das-Resume.pdf</t>
+        </is>
+      </c>
+      <c r="B76" t="b">
+        <v>0</v>
+      </c>
+      <c r="C76" t="b">
+        <v>1</v>
+      </c>
+      <c r="D76" t="b">
+        <v>0</v>
+      </c>
+      <c r="E76" t="b">
+        <v>1</v>
+      </c>
+      <c r="F76" t="b">
+        <v>1</v>
+      </c>
+      <c r="G76" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I76" t="b">
+        <v>1</v>
+      </c>
+      <c r="J76" t="b">
+        <v>1</v>
+      </c>
+      <c r="K76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Rahul+Sehgal_Resume.pdf</t>
+        </is>
+      </c>
+      <c r="B77" t="b">
+        <v>0</v>
+      </c>
+      <c r="C77" t="b">
+        <v>1</v>
+      </c>
+      <c r="D77" t="b">
+        <v>0</v>
+      </c>
+      <c r="E77" t="b">
+        <v>1</v>
+      </c>
+      <c r="F77" t="b">
+        <v>0</v>
+      </c>
+      <c r="G77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="b">
+        <v>1</v>
+      </c>
+      <c r="J77" t="b">
+        <v>1</v>
+      </c>
+      <c r="K77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Rahul+Yadav.pdf</t>
+        </is>
+      </c>
+      <c r="B78" t="b">
+        <v>0</v>
+      </c>
+      <c r="C78" t="b">
+        <v>1</v>
+      </c>
+      <c r="D78" t="b">
+        <v>1</v>
+      </c>
+      <c r="E78" t="b">
+        <v>1</v>
+      </c>
+      <c r="F78" t="b">
+        <v>0</v>
+      </c>
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" t="b">
+        <v>1</v>
+      </c>
+      <c r="I78" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78" t="b">
+        <v>0</v>
+      </c>
+      <c r="K78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Resume (10).pdf</t>
+        </is>
+      </c>
+      <c r="B79" t="b">
+        <v>0</v>
+      </c>
+      <c r="C79" t="b">
+        <v>1</v>
+      </c>
+      <c r="D79" t="b">
+        <v>1</v>
+      </c>
+      <c r="E79" t="b">
+        <v>0</v>
+      </c>
+      <c r="F79" t="b">
+        <v>1</v>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="b">
+        <v>1</v>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" t="b">
+        <v>1</v>
+      </c>
+      <c r="K79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>resume (8).docx</t>
+        </is>
+      </c>
+      <c r="B80" t="b">
+        <v>0</v>
+      </c>
+      <c r="C80" t="b">
+        <v>0</v>
+      </c>
+      <c r="D80" t="b">
+        <v>1</v>
+      </c>
+      <c r="E80" t="b">
+        <v>0</v>
+      </c>
+      <c r="F80" t="b">
+        <v>0</v>
+      </c>
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" t="b">
+        <v>0</v>
+      </c>
+      <c r="K80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Resume (8).pdf</t>
+        </is>
+      </c>
+      <c r="B81" t="b">
+        <v>0</v>
+      </c>
+      <c r="C81" t="b">
+        <v>1</v>
+      </c>
+      <c r="D81" t="b">
+        <v>1</v>
+      </c>
+      <c r="E81" t="b">
+        <v>0</v>
+      </c>
+      <c r="F81" t="b">
+        <v>1</v>
+      </c>
+      <c r="G81" t="b">
+        <v>0</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="b">
+        <v>1</v>
+      </c>
+      <c r="J81" t="b">
+        <v>0</v>
+      </c>
+      <c r="K81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>resume (9).pdf</t>
+        </is>
+      </c>
+      <c r="B82" t="b">
+        <v>0</v>
+      </c>
+      <c r="C82" t="b">
+        <v>0</v>
+      </c>
+      <c r="D82" t="b">
+        <v>0</v>
+      </c>
+      <c r="E82" t="b">
+        <v>0</v>
+      </c>
+      <c r="F82" t="b">
+        <v>0</v>
+      </c>
+      <c r="G82" t="b">
+        <v>0</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="b">
+        <v>0</v>
+      </c>
+      <c r="J82" t="b">
+        <v>0</v>
+      </c>
+      <c r="K82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Resume+Amandeep+Singh.pdf</t>
+        </is>
+      </c>
+      <c r="B83" t="b">
+        <v>0</v>
+      </c>
+      <c r="C83" t="b">
+        <v>1</v>
+      </c>
+      <c r="D83" t="b">
+        <v>0</v>
+      </c>
+      <c r="E83" t="b">
+        <v>1</v>
+      </c>
+      <c r="F83" t="b">
+        <v>0</v>
+      </c>
+      <c r="G83" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83" t="b">
+        <v>1</v>
+      </c>
+      <c r="I83" t="b">
+        <v>1</v>
+      </c>
+      <c r="J83" t="b">
+        <v>1</v>
+      </c>
+      <c r="K83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Resume+Anirudh+Jul+2023 (2).docx</t>
+        </is>
+      </c>
+      <c r="B84" t="b">
+        <v>0</v>
+      </c>
+      <c r="C84" t="b">
+        <v>1</v>
+      </c>
+      <c r="D84" t="b">
+        <v>1</v>
+      </c>
+      <c r="E84" t="b">
+        <v>0</v>
+      </c>
+      <c r="F84" t="b">
+        <v>0</v>
+      </c>
+      <c r="G84" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84" t="b">
+        <v>1</v>
+      </c>
+      <c r="I84" t="b">
+        <v>1</v>
+      </c>
+      <c r="J84" t="b">
+        <v>1</v>
+      </c>
+      <c r="K84" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Resume+ChintanSarvaiya-IT..pdf</t>
+        </is>
+      </c>
+      <c r="B85" t="b">
+        <v>0</v>
+      </c>
+      <c r="C85" t="b">
+        <v>0</v>
+      </c>
+      <c r="D85" t="b">
+        <v>1</v>
+      </c>
+      <c r="E85" t="b">
+        <v>0</v>
+      </c>
+      <c r="F85" t="b">
+        <v>0</v>
+      </c>
+      <c r="G85" t="b">
+        <v>0</v>
+      </c>
+      <c r="H85" t="b">
+        <v>1</v>
+      </c>
+      <c r="I85" t="b">
+        <v>1</v>
+      </c>
+      <c r="J85" t="b">
+        <v>1</v>
+      </c>
+      <c r="K85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Resume+for+Remya+Unnikrishnan+-+DotNetDeveloper.docx</t>
+        </is>
+      </c>
+      <c r="B86" t="b">
+        <v>0</v>
+      </c>
+      <c r="C86" t="b">
+        <v>1</v>
+      </c>
+      <c r="D86" t="b">
+        <v>1</v>
+      </c>
+      <c r="E86" t="b">
+        <v>0</v>
+      </c>
+      <c r="F86" t="b">
+        <v>0</v>
+      </c>
+      <c r="G86" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86" t="b">
+        <v>1</v>
+      </c>
+      <c r="I86" t="b">
+        <v>1</v>
+      </c>
+      <c r="J86" t="b">
+        <v>1</v>
+      </c>
+      <c r="K86" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Resume+Sumit+Mittal.pdf</t>
+        </is>
+      </c>
+      <c r="B87" t="b">
+        <v>0</v>
+      </c>
+      <c r="C87" t="b">
+        <v>1</v>
+      </c>
+      <c r="D87" t="b">
+        <v>1</v>
+      </c>
+      <c r="E87" t="b">
+        <v>0</v>
+      </c>
+      <c r="F87" t="b">
+        <v>0</v>
+      </c>
+      <c r="G87" t="b">
+        <v>1</v>
+      </c>
+      <c r="H87" t="b">
+        <v>1</v>
+      </c>
+      <c r="I87" t="b">
+        <v>1</v>
+      </c>
+      <c r="J87" t="b">
+        <v>1</v>
+      </c>
+      <c r="K87" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Resume-BC-N2.pdf</t>
+        </is>
+      </c>
+      <c r="B88" t="b">
+        <v>0</v>
+      </c>
+      <c r="C88" t="b">
+        <v>0</v>
+      </c>
+      <c r="D88" t="b">
+        <v>0</v>
+      </c>
+      <c r="E88" t="b">
+        <v>0</v>
+      </c>
+      <c r="F88" t="b">
+        <v>0</v>
+      </c>
+      <c r="G88" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88" t="b">
+        <v>1</v>
+      </c>
+      <c r="I88" t="b">
+        <v>1</v>
+      </c>
+      <c r="J88" t="b">
+        <v>1</v>
+      </c>
+      <c r="K88" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Resume-HanSinLee.pdf</t>
+        </is>
+      </c>
+      <c r="B89" t="b">
+        <v>0</v>
+      </c>
+      <c r="C89" t="b">
+        <v>1</v>
+      </c>
+      <c r="D89" t="b">
+        <v>1</v>
+      </c>
+      <c r="E89" t="b">
+        <v>0</v>
+      </c>
+      <c r="F89" t="b">
+        <v>0</v>
+      </c>
+      <c r="G89" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89" t="b">
+        <v>1</v>
+      </c>
+      <c r="I89" t="b">
+        <v>0</v>
+      </c>
+      <c r="J89" t="b">
+        <v>1</v>
+      </c>
+      <c r="K89" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Resume-Melvin-Manuel.pdf</t>
+        </is>
+      </c>
+      <c r="B90" t="b">
+        <v>0</v>
+      </c>
+      <c r="C90" t="b">
+        <v>1</v>
+      </c>
+      <c r="D90" t="b">
+        <v>0</v>
+      </c>
+      <c r="E90" t="b">
+        <v>0</v>
+      </c>
+      <c r="F90" t="b">
+        <v>0</v>
+      </c>
+      <c r="G90" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="b">
+        <v>1</v>
+      </c>
+      <c r="J90" t="b">
+        <v>1</v>
+      </c>
+      <c r="K90" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Resume-Rajamani+Rajangam.docx</t>
+        </is>
+      </c>
+      <c r="B91" t="b">
+        <v>0</v>
+      </c>
+      <c r="C91" t="b">
+        <v>1</v>
+      </c>
+      <c r="D91" t="b">
+        <v>1</v>
+      </c>
+      <c r="E91" t="b">
+        <v>1</v>
+      </c>
+      <c r="F91" t="b">
+        <v>0</v>
+      </c>
+      <c r="G91" t="b">
+        <v>1</v>
+      </c>
+      <c r="H91" t="b">
+        <v>1</v>
+      </c>
+      <c r="I91" t="b">
+        <v>1</v>
+      </c>
+      <c r="J91" t="b">
+        <v>1</v>
+      </c>
+      <c r="K91" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Resume_.pdf</t>
+        </is>
+      </c>
+      <c r="B92" t="b">
+        <v>0</v>
+      </c>
+      <c r="C92" t="b">
+        <v>1</v>
+      </c>
+      <c r="D92" t="b">
+        <v>1</v>
+      </c>
+      <c r="E92" t="b">
+        <v>1</v>
+      </c>
+      <c r="F92" t="b">
+        <v>0</v>
+      </c>
+      <c r="G92" t="b">
+        <v>1</v>
+      </c>
+      <c r="H92" t="b">
+        <v>1</v>
+      </c>
+      <c r="I92" t="b">
+        <v>1</v>
+      </c>
+      <c r="J92" t="b">
+        <v>1</v>
+      </c>
+      <c r="K92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Resume_2023_v5.pdf</t>
+        </is>
+      </c>
+      <c r="B93" t="b">
+        <v>0</v>
+      </c>
+      <c r="C93" t="b">
+        <v>0</v>
+      </c>
+      <c r="D93" t="b">
+        <v>0</v>
+      </c>
+      <c r="E93" t="b">
+        <v>0</v>
+      </c>
+      <c r="F93" t="b">
+        <v>0</v>
+      </c>
+      <c r="G93" t="b">
+        <v>0</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="b">
+        <v>1</v>
+      </c>
+      <c r="J93" t="b">
+        <v>0</v>
+      </c>
+      <c r="K93" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Resume_Abhinav+Tyagi_update.pdf</t>
+        </is>
+      </c>
+      <c r="B94" t="b">
+        <v>0</v>
+      </c>
+      <c r="C94" t="b">
+        <v>0</v>
+      </c>
+      <c r="D94" t="b">
+        <v>0</v>
+      </c>
+      <c r="E94" t="b">
+        <v>0</v>
+      </c>
+      <c r="F94" t="b">
+        <v>0</v>
+      </c>
+      <c r="G94" t="b">
+        <v>0</v>
+      </c>
+      <c r="H94" t="b">
+        <v>1</v>
+      </c>
+      <c r="I94" t="b">
+        <v>1</v>
+      </c>
+      <c r="J94" t="b">
+        <v>1</v>
+      </c>
+      <c r="K94" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Resume_Ashish.pdf</t>
+        </is>
+      </c>
+      <c r="B95" t="b">
+        <v>0</v>
+      </c>
+      <c r="C95" t="b">
+        <v>1</v>
+      </c>
+      <c r="D95" t="b">
+        <v>1</v>
+      </c>
+      <c r="E95" t="b">
+        <v>1</v>
+      </c>
+      <c r="F95" t="b">
+        <v>0</v>
+      </c>
+      <c r="G95" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" t="b">
+        <v>1</v>
+      </c>
+      <c r="I95" t="b">
+        <v>1</v>
+      </c>
+      <c r="J95" t="b">
+        <v>1</v>
+      </c>
+      <c r="K95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Resume_Dulmin_Gunaratne.pdf</t>
+        </is>
+      </c>
+      <c r="B96" t="b">
+        <v>0</v>
+      </c>
+      <c r="C96" t="b">
+        <v>0</v>
+      </c>
+      <c r="D96" t="b">
+        <v>1</v>
+      </c>
+      <c r="E96" t="b">
+        <v>0</v>
+      </c>
+      <c r="F96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G96" t="b">
+        <v>0</v>
+      </c>
+      <c r="H96" t="b">
+        <v>1</v>
+      </c>
+      <c r="I96" t="b">
+        <v>1</v>
+      </c>
+      <c r="J96" t="b">
+        <v>0</v>
+      </c>
+      <c r="K96" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>RESUME_HAIDER.pdf</t>
+        </is>
+      </c>
+      <c r="B97" t="b">
+        <v>0</v>
+      </c>
+      <c r="C97" t="b">
+        <v>1</v>
+      </c>
+      <c r="D97" t="b">
+        <v>1</v>
+      </c>
+      <c r="E97" t="b">
+        <v>1</v>
+      </c>
+      <c r="F97" t="b">
+        <v>0</v>
+      </c>
+      <c r="G97" t="b">
+        <v>1</v>
+      </c>
+      <c r="H97" t="b">
+        <v>1</v>
+      </c>
+      <c r="I97" t="b">
+        <v>1</v>
+      </c>
+      <c r="J97" t="b">
+        <v>1</v>
+      </c>
+      <c r="K97" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Resume_NingQin.pdf</t>
+        </is>
+      </c>
+      <c r="B98" t="b">
+        <v>0</v>
+      </c>
+      <c r="C98" t="b">
+        <v>0</v>
+      </c>
+      <c r="D98" t="b">
+        <v>0</v>
+      </c>
+      <c r="E98" t="b">
+        <v>0</v>
+      </c>
+      <c r="F98" t="b">
+        <v>0</v>
+      </c>
+      <c r="G98" t="b">
+        <v>0</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="b">
+        <v>0</v>
+      </c>
+      <c r="J98" t="b">
+        <v>0</v>
+      </c>
+      <c r="K98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Resume_OliverZhang.pdf</t>
+        </is>
+      </c>
+      <c r="B99" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" t="b">
+        <v>1</v>
+      </c>
+      <c r="D99" t="b">
+        <v>1</v>
+      </c>
+      <c r="E99" t="b">
+        <v>0</v>
+      </c>
+      <c r="F99" t="b">
+        <v>0</v>
+      </c>
+      <c r="G99" t="b">
+        <v>1</v>
+      </c>
+      <c r="H99" t="b">
+        <v>1</v>
+      </c>
+      <c r="I99" t="b">
+        <v>1</v>
+      </c>
+      <c r="J99" t="b">
+        <v>1</v>
+      </c>
+      <c r="K99" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Resume_PRIYANSHI_PATEL_final3.pdf</t>
+        </is>
+      </c>
+      <c r="B100" t="b">
+        <v>0</v>
+      </c>
+      <c r="C100" t="b">
+        <v>1</v>
+      </c>
+      <c r="D100" t="b">
+        <v>1</v>
+      </c>
+      <c r="E100" t="b">
+        <v>1</v>
+      </c>
+      <c r="F100" t="b">
+        <v>0</v>
+      </c>
+      <c r="G100" t="b">
+        <v>1</v>
+      </c>
+      <c r="H100" t="b">
+        <v>1</v>
+      </c>
+      <c r="I100" t="b">
+        <v>1</v>
+      </c>
+      <c r="J100" t="b">
+        <v>1</v>
+      </c>
+      <c r="K100" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Resume_Programmer.pdf</t>
+        </is>
+      </c>
+      <c r="B101" t="b">
+        <v>0</v>
+      </c>
+      <c r="C101" t="b">
+        <v>0</v>
+      </c>
+      <c r="D101" t="b">
+        <v>1</v>
+      </c>
+      <c r="E101" t="b">
+        <v>0</v>
+      </c>
+      <c r="F101" t="b">
+        <v>1</v>
+      </c>
+      <c r="G101" t="b">
+        <v>1</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="b">
+        <v>1</v>
+      </c>
+      <c r="J101" t="b">
+        <v>1</v>
+      </c>
+      <c r="K101" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Resume_vbojcev.pdf</t>
+        </is>
+      </c>
+      <c r="B102" t="b">
+        <v>0</v>
+      </c>
+      <c r="C102" t="b">
+        <v>0</v>
+      </c>
+      <c r="D102" t="b">
+        <v>0</v>
+      </c>
+      <c r="E102" t="b">
+        <v>0</v>
+      </c>
+      <c r="F102" t="b">
+        <v>0</v>
+      </c>
+      <c r="G102" t="b">
+        <v>1</v>
+      </c>
+      <c r="H102" t="b">
+        <v>0</v>
+      </c>
+      <c r="I102" t="b">
+        <v>1</v>
+      </c>
+      <c r="J102" t="b">
+        <v>1</v>
+      </c>
+      <c r="K102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>resume_yuanhuaming.pdf</t>
+        </is>
+      </c>
+      <c r="B103" t="b">
+        <v>0</v>
+      </c>
+      <c r="C103" t="b">
+        <v>0</v>
+      </c>
+      <c r="D103" t="b">
+        <v>1</v>
+      </c>
+      <c r="E103" t="b">
+        <v>0</v>
+      </c>
+      <c r="F103" t="b">
+        <v>0</v>
+      </c>
+      <c r="G103" t="b">
+        <v>0</v>
+      </c>
+      <c r="H103" t="b">
+        <v>1</v>
+      </c>
+      <c r="I103" t="b">
+        <v>1</v>
+      </c>
+      <c r="J103" t="b">
+        <v>0</v>
+      </c>
+      <c r="K103" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Rohith+Tathi+Reddy.docx</t>
+        </is>
+      </c>
+      <c r="B104" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" t="b">
+        <v>1</v>
+      </c>
+      <c r="D104" t="b">
+        <v>1</v>
+      </c>
+      <c r="E104" t="b">
+        <v>1</v>
+      </c>
+      <c r="F104" t="b">
+        <v>0</v>
+      </c>
+      <c r="G104" t="b">
+        <v>1</v>
+      </c>
+      <c r="H104" t="b">
+        <v>1</v>
+      </c>
+      <c r="I104" t="b">
+        <v>1</v>
+      </c>
+      <c r="J104" t="b">
+        <v>1</v>
+      </c>
+      <c r="K104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Ruipeng_Li_Resume_And_Recommendation_Letters (1).pdf</t>
+        </is>
+      </c>
+      <c r="B105" t="b">
+        <v>0</v>
+      </c>
+      <c r="C105" t="b">
+        <v>0</v>
+      </c>
+      <c r="D105" t="b">
+        <v>1</v>
+      </c>
+      <c r="E105" t="b">
+        <v>0</v>
+      </c>
+      <c r="F105" t="b">
+        <v>0</v>
+      </c>
+      <c r="G105" t="b">
+        <v>0</v>
+      </c>
+      <c r="H105" t="b">
+        <v>1</v>
+      </c>
+      <c r="I105" t="b">
+        <v>0</v>
+      </c>
+      <c r="J105" t="b">
+        <v>0</v>
+      </c>
+      <c r="K105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Sarbpreet+Sidhu-V4.docx</t>
+        </is>
+      </c>
+      <c r="B106" t="b">
+        <v>0</v>
+      </c>
+      <c r="C106" t="b">
+        <v>1</v>
+      </c>
+      <c r="D106" t="b">
+        <v>1</v>
+      </c>
+      <c r="E106" t="b">
+        <v>1</v>
+      </c>
+      <c r="F106" t="b">
+        <v>0</v>
+      </c>
+      <c r="G106" t="b">
+        <v>1</v>
+      </c>
+      <c r="H106" t="b">
+        <v>1</v>
+      </c>
+      <c r="I106" t="b">
+        <v>1</v>
+      </c>
+      <c r="J106" t="b">
+        <v>1</v>
+      </c>
+      <c r="K106" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Saurabh+Pendse+2023.pdf</t>
+        </is>
+      </c>
+      <c r="B107" t="b">
+        <v>0</v>
+      </c>
+      <c r="C107" t="b">
+        <v>0</v>
+      </c>
+      <c r="D107" t="b">
+        <v>0</v>
+      </c>
+      <c r="E107" t="b">
+        <v>0</v>
+      </c>
+      <c r="F107" t="b">
+        <v>0</v>
+      </c>
+      <c r="G107" t="b">
+        <v>0</v>
+      </c>
+      <c r="H107" t="b">
+        <v>0</v>
+      </c>
+      <c r="I107" t="b">
+        <v>0</v>
+      </c>
+      <c r="J107" t="b">
+        <v>0</v>
+      </c>
+      <c r="K107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>SCV23.docx</t>
+        </is>
+      </c>
+      <c r="B108" t="b">
+        <v>0</v>
+      </c>
+      <c r="C108" t="b">
+        <v>1</v>
+      </c>
+      <c r="D108" t="b">
+        <v>1</v>
+      </c>
+      <c r="E108" t="b">
+        <v>0</v>
+      </c>
+      <c r="F108" t="b">
+        <v>0</v>
+      </c>
+      <c r="G108" t="b">
+        <v>1</v>
+      </c>
+      <c r="H108" t="b">
+        <v>1</v>
+      </c>
+      <c r="I108" t="b">
+        <v>1</v>
+      </c>
+      <c r="J108" t="b">
+        <v>0</v>
+      </c>
+      <c r="K108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Shahil+Cv.pdf</t>
+        </is>
+      </c>
+      <c r="B109" t="b">
+        <v>0</v>
+      </c>
+      <c r="C109" t="b">
+        <v>0</v>
+      </c>
+      <c r="D109" t="b">
+        <v>1</v>
+      </c>
+      <c r="E109" t="b">
+        <v>0</v>
+      </c>
+      <c r="F109" t="b">
+        <v>0</v>
+      </c>
+      <c r="G109" t="b">
+        <v>1</v>
+      </c>
+      <c r="H109" t="b">
+        <v>0</v>
+      </c>
+      <c r="I109" t="b">
+        <v>1</v>
+      </c>
+      <c r="J109" t="b">
+        <v>1</v>
+      </c>
+      <c r="K109" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>SI_THU+HTUT+(Dennis)_Resume.pdf</t>
+        </is>
+      </c>
+      <c r="B110" t="b">
+        <v>0</v>
+      </c>
+      <c r="C110" t="b">
+        <v>0</v>
+      </c>
+      <c r="D110" t="b">
+        <v>0</v>
+      </c>
+      <c r="E110" t="b">
+        <v>0</v>
+      </c>
+      <c r="F110" t="b">
+        <v>0</v>
+      </c>
+      <c r="G110" t="b">
+        <v>0</v>
+      </c>
+      <c r="H110" t="b">
+        <v>0</v>
+      </c>
+      <c r="I110" t="b">
+        <v>0</v>
+      </c>
+      <c r="J110" t="b">
+        <v>0</v>
+      </c>
+      <c r="K110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Smit_Patel__.NET_Full_Satck_Developer++(1).pdf</t>
+        </is>
+      </c>
+      <c r="B111" t="b">
+        <v>0</v>
+      </c>
+      <c r="C111" t="b">
+        <v>1</v>
+      </c>
+      <c r="D111" t="b">
+        <v>1</v>
+      </c>
+      <c r="E111" t="b">
+        <v>1</v>
+      </c>
+      <c r="F111" t="b">
+        <v>0</v>
+      </c>
+      <c r="G111" t="b">
+        <v>1</v>
+      </c>
+      <c r="H111" t="b">
+        <v>1</v>
+      </c>
+      <c r="I111" t="b">
+        <v>1</v>
+      </c>
+      <c r="J111" t="b">
+        <v>0</v>
+      </c>
+      <c r="K111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Software+developer+Vishal+Resume+2023.pdf</t>
+        </is>
+      </c>
+      <c r="B112" t="b">
+        <v>0</v>
+      </c>
+      <c r="C112" t="b">
+        <v>1</v>
+      </c>
+      <c r="D112" t="b">
+        <v>0</v>
+      </c>
+      <c r="E112" t="b">
+        <v>1</v>
+      </c>
+      <c r="F112" t="b">
+        <v>0</v>
+      </c>
+      <c r="G112" t="b">
+        <v>1</v>
+      </c>
+      <c r="H112" t="b">
+        <v>1</v>
+      </c>
+      <c r="I112" t="b">
+        <v>1</v>
+      </c>
+      <c r="J112" t="b">
+        <v>1</v>
+      </c>
+      <c r="K112" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Solomon_Padayattil_resume.pdf</t>
+        </is>
+      </c>
+      <c r="B113" t="b">
+        <v>0</v>
+      </c>
+      <c r="C113" t="b">
+        <v>1</v>
+      </c>
+      <c r="D113" t="b">
+        <v>1</v>
+      </c>
+      <c r="E113" t="b">
+        <v>0</v>
+      </c>
+      <c r="F113" t="b">
+        <v>0</v>
+      </c>
+      <c r="G113" t="b">
+        <v>1</v>
+      </c>
+      <c r="H113" t="b">
+        <v>1</v>
+      </c>
+      <c r="I113" t="b">
+        <v>1</v>
+      </c>
+      <c r="J113" t="b">
+        <v>0</v>
+      </c>
+      <c r="K113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>SonaliRasaniya_Resume (1).pdf</t>
+        </is>
+      </c>
+      <c r="B114" t="b">
+        <v>0</v>
+      </c>
+      <c r="C114" t="b">
+        <v>0</v>
+      </c>
+      <c r="D114" t="b">
+        <v>0</v>
+      </c>
+      <c r="E114" t="b">
+        <v>0</v>
+      </c>
+      <c r="F114" t="b">
+        <v>0</v>
+      </c>
+      <c r="G114" t="b">
+        <v>1</v>
+      </c>
+      <c r="H114" t="b">
+        <v>1</v>
+      </c>
+      <c r="I114" t="b">
+        <v>1</v>
+      </c>
+      <c r="J114" t="b">
+        <v>1</v>
+      </c>
+      <c r="K114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>SonaliRasaniya_Resume.pdf</t>
+        </is>
+      </c>
+      <c r="B115" t="b">
+        <v>0</v>
+      </c>
+      <c r="C115" t="b">
+        <v>0</v>
+      </c>
+      <c r="D115" t="b">
+        <v>0</v>
+      </c>
+      <c r="E115" t="b">
+        <v>0</v>
+      </c>
+      <c r="F115" t="b">
+        <v>0</v>
+      </c>
+      <c r="G115" t="b">
+        <v>1</v>
+      </c>
+      <c r="H115" t="b">
+        <v>1</v>
+      </c>
+      <c r="I115" t="b">
+        <v>1</v>
+      </c>
+      <c r="J115" t="b">
+        <v>1</v>
+      </c>
+      <c r="K115" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Steven_Le_Resume.pdf</t>
+        </is>
+      </c>
+      <c r="B116" t="b">
+        <v>0</v>
+      </c>
+      <c r="C116" t="b">
+        <v>1</v>
+      </c>
+      <c r="D116" t="b">
+        <v>0</v>
+      </c>
+      <c r="E116" t="b">
+        <v>0</v>
+      </c>
+      <c r="F116" t="b">
+        <v>0</v>
+      </c>
+      <c r="G116" t="b">
+        <v>1</v>
+      </c>
+      <c r="H116" t="b">
+        <v>0</v>
+      </c>
+      <c r="I116" t="b">
+        <v>1</v>
+      </c>
+      <c r="J116" t="b">
+        <v>1</v>
+      </c>
+      <c r="K116" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Suhail_Singh_Bains_Nov_2023_Full_Stack.pdf</t>
+        </is>
+      </c>
+      <c r="B117" t="b">
+        <v>0</v>
+      </c>
+      <c r="C117" t="b">
+        <v>0</v>
+      </c>
+      <c r="D117" t="b">
+        <v>0</v>
+      </c>
+      <c r="E117" t="b">
+        <v>0</v>
+      </c>
+      <c r="F117" t="b">
+        <v>0</v>
+      </c>
+      <c r="G117" t="b">
+        <v>1</v>
+      </c>
+      <c r="H117" t="b">
+        <v>1</v>
+      </c>
+      <c r="I117" t="b">
+        <v>1</v>
+      </c>
+      <c r="J117" t="b">
+        <v>1</v>
+      </c>
+      <c r="K117" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Thamal+Wijetunge.pdf</t>
+        </is>
+      </c>
+      <c r="B118" t="b">
+        <v>0</v>
+      </c>
+      <c r="C118" t="b">
+        <v>1</v>
+      </c>
+      <c r="D118" t="b">
+        <v>1</v>
+      </c>
+      <c r="E118" t="b">
+        <v>1</v>
+      </c>
+      <c r="F118" t="b">
+        <v>1</v>
+      </c>
+      <c r="G118" t="b">
+        <v>1</v>
+      </c>
+      <c r="H118" t="b">
+        <v>0</v>
+      </c>
+      <c r="I118" t="b">
+        <v>1</v>
+      </c>
+      <c r="J118" t="b">
+        <v>1</v>
+      </c>
+      <c r="K118" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Thilok+Gunawardena.docx</t>
+        </is>
+      </c>
+      <c r="B119" t="b">
+        <v>0</v>
+      </c>
+      <c r="C119" t="b">
+        <v>1</v>
+      </c>
+      <c r="D119" t="b">
+        <v>1</v>
+      </c>
+      <c r="E119" t="b">
+        <v>1</v>
+      </c>
+      <c r="F119" t="b">
+        <v>0</v>
+      </c>
+      <c r="G119" t="b">
+        <v>0</v>
+      </c>
+      <c r="H119" t="b">
+        <v>1</v>
+      </c>
+      <c r="I119" t="b">
+        <v>1</v>
+      </c>
+      <c r="J119" t="b">
+        <v>0</v>
+      </c>
+      <c r="K119" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Tirth+Shah.docx</t>
+        </is>
+      </c>
+      <c r="B120" t="b">
+        <v>1</v>
+      </c>
+      <c r="C120" t="b">
+        <v>1</v>
+      </c>
+      <c r="D120" t="b">
+        <v>1</v>
+      </c>
+      <c r="E120" t="b">
+        <v>0</v>
+      </c>
+      <c r="F120" t="b">
+        <v>0</v>
+      </c>
+      <c r="G120" t="b">
+        <v>1</v>
+      </c>
+      <c r="H120" t="b">
+        <v>1</v>
+      </c>
+      <c r="I120" t="b">
+        <v>1</v>
+      </c>
+      <c r="J120" t="b">
+        <v>1</v>
+      </c>
+      <c r="K120" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>TuongVo_Resume.pdf</t>
+        </is>
+      </c>
+      <c r="B121" t="b">
+        <v>0</v>
+      </c>
+      <c r="C121" t="b">
+        <v>1</v>
+      </c>
+      <c r="D121" t="b">
+        <v>1</v>
+      </c>
+      <c r="E121" t="b">
+        <v>1</v>
+      </c>
+      <c r="F121" t="b">
+        <v>0</v>
+      </c>
+      <c r="G121" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" t="b">
+        <v>1</v>
+      </c>
+      <c r="I121" t="b">
+        <v>1</v>
+      </c>
+      <c r="J121" t="b">
+        <v>1</v>
+      </c>
+      <c r="K121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Vanisha+Resume+2023.docx</t>
+        </is>
+      </c>
+      <c r="B122" t="b">
+        <v>0</v>
+      </c>
+      <c r="C122" t="b">
+        <v>1</v>
+      </c>
+      <c r="D122" t="b">
+        <v>1</v>
+      </c>
+      <c r="E122" t="b">
+        <v>1</v>
+      </c>
+      <c r="F122" t="b">
+        <v>0</v>
+      </c>
+      <c r="G122" t="b">
+        <v>1</v>
+      </c>
+      <c r="H122" t="b">
+        <v>1</v>
+      </c>
+      <c r="I122" t="b">
+        <v>1</v>
+      </c>
+      <c r="J122" t="b">
+        <v>1</v>
+      </c>
+      <c r="K122" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Venkatesh_K_Resume.pdf</t>
+        </is>
+      </c>
+      <c r="B123" t="b">
+        <v>0</v>
+      </c>
+      <c r="C123" t="b">
+        <v>0</v>
+      </c>
+      <c r="D123" t="b">
+        <v>0</v>
+      </c>
+      <c r="E123" t="b">
+        <v>0</v>
+      </c>
+      <c r="F123" t="b">
+        <v>0</v>
+      </c>
+      <c r="G123" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" t="b">
+        <v>1</v>
+      </c>
+      <c r="I123" t="b">
+        <v>1</v>
+      </c>
+      <c r="J123" t="b">
+        <v>1</v>
+      </c>
+      <c r="K123" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Vickykumar_Patel_resume.pdf</t>
+        </is>
+      </c>
+      <c r="B124" t="b">
+        <v>1</v>
+      </c>
+      <c r="C124" t="b">
+        <v>1</v>
+      </c>
+      <c r="D124" t="b">
+        <v>0</v>
+      </c>
+      <c r="E124" t="b">
+        <v>0</v>
+      </c>
+      <c r="F124" t="b">
+        <v>0</v>
+      </c>
+      <c r="G124" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" t="b">
+        <v>1</v>
+      </c>
+      <c r="I124" t="b">
+        <v>1</v>
+      </c>
+      <c r="J124" t="b">
+        <v>1</v>
+      </c>
+      <c r="K124" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Vitalii+Poliakov+Resume.pdf</t>
+        </is>
+      </c>
+      <c r="B125" t="b">
+        <v>0</v>
+      </c>
+      <c r="C125" t="b">
+        <v>1</v>
+      </c>
+      <c r="D125" t="b">
+        <v>0</v>
+      </c>
+      <c r="E125" t="b">
+        <v>0</v>
+      </c>
+      <c r="F125" t="b">
+        <v>0</v>
+      </c>
+      <c r="G125" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" t="b">
+        <v>1</v>
+      </c>
+      <c r="I125" t="b">
+        <v>1</v>
+      </c>
+      <c r="J125" t="b">
+        <v>1</v>
+      </c>
+      <c r="K125" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Vitalii_Bohudskyi_Resume_Updated.pdf</t>
+        </is>
+      </c>
+      <c r="B126" t="b">
+        <v>0</v>
+      </c>
+      <c r="C126" t="b">
+        <v>1</v>
+      </c>
+      <c r="D126" t="b">
+        <v>1</v>
+      </c>
+      <c r="E126" t="b">
+        <v>0</v>
+      </c>
+      <c r="F126" t="b">
+        <v>1</v>
+      </c>
+      <c r="G126" t="b">
+        <v>0</v>
+      </c>
+      <c r="H126" t="b">
+        <v>1</v>
+      </c>
+      <c r="I126" t="b">
+        <v>1</v>
+      </c>
+      <c r="J126" t="b">
+        <v>0</v>
+      </c>
+      <c r="K126" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>_Resume.pdf</t>
+        </is>
+      </c>
+      <c r="B127" t="b">
+        <v>0</v>
+      </c>
+      <c r="C127" t="b">
+        <v>1</v>
+      </c>
+      <c r="D127" t="b">
+        <v>1</v>
+      </c>
+      <c r="E127" t="b">
+        <v>1</v>
+      </c>
+      <c r="F127" t="b">
+        <v>0</v>
+      </c>
+      <c r="G127" t="b">
+        <v>1</v>
+      </c>
+      <c r="H127" t="b">
+        <v>1</v>
+      </c>
+      <c r="I127" t="b">
+        <v>1</v>
+      </c>
+      <c r="J127" t="b">
+        <v>1</v>
+      </c>
+      <c r="K127" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Alex/excel_output_file.xlsx
+++ b/Alex/excel_output_file.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,20 +481,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>docx_example1.docx</t>
+          <t>Abe Burnett.pdf</t>
         </is>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -503,29 +503,29 @@
         <v>1</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
       </c>
       <c r="J2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>docx_example2.docx</t>
+          <t>Achala Subramanya.pdf</t>
         </is>
       </c>
       <c r="B3" t="b">
         <v>0</v>
       </c>
       <c r="C3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -543,23 +543,23 @@
         <v>0</v>
       </c>
       <c r="I3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="b">
         <v>0</v>
       </c>
       <c r="K3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>pdf_example1.pdf</t>
+          <t>Aditi Saluja.pdf</t>
         </is>
       </c>
       <c r="B4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -580,13 +580,2751 @@
         <v>0</v>
       </c>
       <c r="I4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="b">
         <v>0</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ALAIN BEDI.docx</t>
+        </is>
+      </c>
+      <c r="B5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Anudeep Reddy Puthalapattu.docx</t>
+        </is>
+      </c>
+      <c r="B6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Arash Shokouhmand.pdf</t>
+        </is>
+      </c>
+      <c r="B7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Arvind Surve.pdf</t>
+        </is>
+      </c>
+      <c r="B8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ASIF KHAN.docx</t>
+        </is>
+      </c>
+      <c r="B9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Atharva Haldankar.pdf</t>
+        </is>
+      </c>
+      <c r="B10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Bo Xu.pdf</t>
+        </is>
+      </c>
+      <c r="B11" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Bobby Jacob.pdf</t>
+        </is>
+      </c>
+      <c r="B12" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CARISSA SLONE.pdf</t>
+        </is>
+      </c>
+      <c r="B13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chunyan Li.pdf</t>
+        </is>
+      </c>
+      <c r="B14" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Dinesh Reddy Challa.pdf</t>
+        </is>
+      </c>
+      <c r="B15" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Dominique Songa.docx</t>
+        </is>
+      </c>
+      <c r="B16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Ernest Keme.docx</t>
+        </is>
+      </c>
+      <c r="B17" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Girish Budhrani.pdf</t>
+        </is>
+      </c>
+      <c r="B18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Girraj Maheshwari.docx</t>
+        </is>
+      </c>
+      <c r="B19" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Harshit Rajgarhia.pdf</t>
+        </is>
+      </c>
+      <c r="B20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>HERBERT DANIEL LUDOWIEG.pdf</t>
+        </is>
+      </c>
+      <c r="B21" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Himanshu Ghritalhre.pdf</t>
+        </is>
+      </c>
+      <c r="B22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Jae Mwangi.pdf</t>
+        </is>
+      </c>
+      <c r="B23" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>James Wahome.docx</t>
+        </is>
+      </c>
+      <c r="B24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" t="b">
+        <v>1</v>
+      </c>
+      <c r="K24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>JAMIE DAUBENSPECK.pdf</t>
+        </is>
+      </c>
+      <c r="B25" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>JianwenGEORGE ZHAO.pdf</t>
+        </is>
+      </c>
+      <c r="B26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" t="b">
+        <v>1</v>
+      </c>
+      <c r="K26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Jonathan Vincent Tandaw.pdf</t>
+        </is>
+      </c>
+      <c r="B27" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="b">
+        <v>1</v>
+      </c>
+      <c r="K27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Kacy Kane.pdf</t>
+        </is>
+      </c>
+      <c r="B28" t="b">
+        <v>0</v>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>KEVIN KASUNDRA.pdf</t>
+        </is>
+      </c>
+      <c r="B29" t="b">
+        <v>0</v>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" t="b">
+        <v>1</v>
+      </c>
+      <c r="K29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Kyle Frankovich.pdf</t>
+        </is>
+      </c>
+      <c r="B30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Lakshika Balasuriya.pdf</t>
+        </is>
+      </c>
+      <c r="B31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Li Wang.pdf</t>
+        </is>
+      </c>
+      <c r="B32" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Mahima Barot.docx</t>
+        </is>
+      </c>
+      <c r="B33" t="b">
+        <v>0</v>
+      </c>
+      <c r="C33" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" t="b">
+        <v>1</v>
+      </c>
+      <c r="K33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Maitrik Das.pdf</t>
+        </is>
+      </c>
+      <c r="B34" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" t="b">
+        <v>1</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" t="b">
+        <v>1</v>
+      </c>
+      <c r="K34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Mayank Sharma.docx</t>
+        </is>
+      </c>
+      <c r="B35" t="b">
+        <v>0</v>
+      </c>
+      <c r="C35" t="b">
+        <v>1</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Meisam Rezaei.pdf</t>
+        </is>
+      </c>
+      <c r="B36" t="b">
+        <v>0</v>
+      </c>
+      <c r="C36" t="b">
+        <v>1</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="b">
+        <v>1</v>
+      </c>
+      <c r="K36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Miao  Li.pdf</t>
+        </is>
+      </c>
+      <c r="B37" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" t="b">
+        <v>1</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" t="b">
+        <v>1</v>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="b">
+        <v>1</v>
+      </c>
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Moumita Hanra.pdf</t>
+        </is>
+      </c>
+      <c r="B38" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" t="b">
+        <v>1</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Naveed Haq.docx</t>
+        </is>
+      </c>
+      <c r="B39" t="b">
+        <v>0</v>
+      </c>
+      <c r="C39" t="b">
+        <v>1</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" t="b">
+        <v>1</v>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" t="b">
+        <v>1</v>
+      </c>
+      <c r="I39" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" t="b">
+        <v>1</v>
+      </c>
+      <c r="K39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Neetu Singh.pdf</t>
+        </is>
+      </c>
+      <c r="B40" t="b">
+        <v>0</v>
+      </c>
+      <c r="C40" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" t="b">
+        <v>1</v>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" t="b">
+        <v>1</v>
+      </c>
+      <c r="K40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Nidia I Bucarelli.pdf</t>
+        </is>
+      </c>
+      <c r="B41" t="b">
+        <v>0</v>
+      </c>
+      <c r="C41" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>PARIDHI KABRA.pdf</t>
+        </is>
+      </c>
+      <c r="B42" t="b">
+        <v>0</v>
+      </c>
+      <c r="C42" t="b">
+        <v>1</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" t="b">
+        <v>0</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Pavel Dramski.pdf</t>
+        </is>
+      </c>
+      <c r="B43" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" t="b">
+        <v>1</v>
+      </c>
+      <c r="K43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Peter Fang.pdf</t>
+        </is>
+      </c>
+      <c r="B44" t="b">
+        <v>0</v>
+      </c>
+      <c r="C44" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" t="b">
+        <v>1</v>
+      </c>
+      <c r="I44" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" t="b">
+        <v>1</v>
+      </c>
+      <c r="K44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Prachi Tripathi.docx</t>
+        </is>
+      </c>
+      <c r="B45" t="b">
+        <v>0</v>
+      </c>
+      <c r="C45" t="b">
+        <v>0</v>
+      </c>
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" t="b">
+        <v>0</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" t="b">
+        <v>1</v>
+      </c>
+      <c r="I45" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Prasanth Dwadasi.pdf</t>
+        </is>
+      </c>
+      <c r="B46" t="b">
+        <v>0</v>
+      </c>
+      <c r="C46" t="b">
+        <v>1</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Pratibha Chitt.pdf</t>
+        </is>
+      </c>
+      <c r="B47" t="b">
+        <v>0</v>
+      </c>
+      <c r="C47" t="b">
+        <v>1</v>
+      </c>
+      <c r="D47" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" t="b">
+        <v>1</v>
+      </c>
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47" t="b">
+        <v>1</v>
+      </c>
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" t="b">
+        <v>1</v>
+      </c>
+      <c r="K47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>PRAVEEN GUJJA.docx</t>
+        </is>
+      </c>
+      <c r="B48" t="b">
+        <v>0</v>
+      </c>
+      <c r="C48" t="b">
+        <v>1</v>
+      </c>
+      <c r="D48" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48" t="b">
+        <v>0</v>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" t="b">
+        <v>1</v>
+      </c>
+      <c r="K48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>PREETHI SRINIVASAN.pdf</t>
+        </is>
+      </c>
+      <c r="B49" t="b">
+        <v>0</v>
+      </c>
+      <c r="C49" t="b">
+        <v>1</v>
+      </c>
+      <c r="D49" t="b">
+        <v>1</v>
+      </c>
+      <c r="E49" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" t="b">
+        <v>0</v>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" t="b">
+        <v>1</v>
+      </c>
+      <c r="I49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Priyanka Sinha.pdf</t>
+        </is>
+      </c>
+      <c r="B50" t="b">
+        <v>0</v>
+      </c>
+      <c r="C50" t="b">
+        <v>1</v>
+      </c>
+      <c r="D50" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50" t="b">
+        <v>0</v>
+      </c>
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" t="b">
+        <v>0</v>
+      </c>
+      <c r="K50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Qichao Sun.pdf</t>
+        </is>
+      </c>
+      <c r="B51" t="b">
+        <v>0</v>
+      </c>
+      <c r="C51" t="b">
+        <v>1</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" t="b">
+        <v>1</v>
+      </c>
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51" t="b">
+        <v>1</v>
+      </c>
+      <c r="I51" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" t="b">
+        <v>0</v>
+      </c>
+      <c r="K51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>RACHEL MCMULLAN.docx</t>
+        </is>
+      </c>
+      <c r="B52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C52" t="b">
+        <v>0</v>
+      </c>
+      <c r="D52" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52" t="b">
+        <v>0</v>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" t="b">
+        <v>0</v>
+      </c>
+      <c r="K52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Raghav Sharma.pdf</t>
+        </is>
+      </c>
+      <c r="B53" t="b">
+        <v>0</v>
+      </c>
+      <c r="C53" t="b">
+        <v>1</v>
+      </c>
+      <c r="D53" t="b">
+        <v>1</v>
+      </c>
+      <c r="E53" t="b">
+        <v>0</v>
+      </c>
+      <c r="F53" t="b">
+        <v>0</v>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
+      <c r="J53" t="b">
+        <v>1</v>
+      </c>
+      <c r="K53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Rahman Heidarykiany.pdf</t>
+        </is>
+      </c>
+      <c r="B54" t="b">
+        <v>0</v>
+      </c>
+      <c r="C54" t="b">
+        <v>0</v>
+      </c>
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" t="b">
+        <v>0</v>
+      </c>
+      <c r="F54" t="b">
+        <v>0</v>
+      </c>
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="b">
+        <v>1</v>
+      </c>
+      <c r="J54" t="b">
+        <v>0</v>
+      </c>
+      <c r="K54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Rashmitha Challa.pdf</t>
+        </is>
+      </c>
+      <c r="B55" t="b">
+        <v>0</v>
+      </c>
+      <c r="C55" t="b">
+        <v>1</v>
+      </c>
+      <c r="D55" t="b">
+        <v>1</v>
+      </c>
+      <c r="E55" t="b">
+        <v>0</v>
+      </c>
+      <c r="F55" t="b">
+        <v>0</v>
+      </c>
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" t="b">
+        <v>1</v>
+      </c>
+      <c r="I55" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55" t="b">
+        <v>1</v>
+      </c>
+      <c r="K55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Richa Chaudhary.docx</t>
+        </is>
+      </c>
+      <c r="B56" t="b">
+        <v>0</v>
+      </c>
+      <c r="C56" t="b">
+        <v>0</v>
+      </c>
+      <c r="D56" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56" t="b">
+        <v>0</v>
+      </c>
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" t="b">
+        <v>1</v>
+      </c>
+      <c r="I56" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56" t="b">
+        <v>0</v>
+      </c>
+      <c r="K56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>RUBY _RUOBING_ WANG.docx</t>
+        </is>
+      </c>
+      <c r="B57" t="b">
+        <v>0</v>
+      </c>
+      <c r="C57" t="b">
+        <v>0</v>
+      </c>
+      <c r="D57" t="b">
+        <v>1</v>
+      </c>
+      <c r="E57" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57" t="b">
+        <v>0</v>
+      </c>
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="b">
+        <v>1</v>
+      </c>
+      <c r="J57" t="b">
+        <v>0</v>
+      </c>
+      <c r="K57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Sai Teja Voruganti.pdf</t>
+        </is>
+      </c>
+      <c r="B58" t="b">
+        <v>0</v>
+      </c>
+      <c r="C58" t="b">
+        <v>0</v>
+      </c>
+      <c r="D58" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58" t="b">
+        <v>0</v>
+      </c>
+      <c r="G58" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" t="b">
+        <v>0</v>
+      </c>
+      <c r="K58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Sakshi Srivastava.pdf</t>
+        </is>
+      </c>
+      <c r="B59" t="b">
+        <v>0</v>
+      </c>
+      <c r="C59" t="b">
+        <v>1</v>
+      </c>
+      <c r="D59" t="b">
+        <v>1</v>
+      </c>
+      <c r="E59" t="b">
+        <v>0</v>
+      </c>
+      <c r="F59" t="b">
+        <v>1</v>
+      </c>
+      <c r="G59" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59" t="b">
+        <v>1</v>
+      </c>
+      <c r="I59" t="b">
+        <v>1</v>
+      </c>
+      <c r="J59" t="b">
+        <v>1</v>
+      </c>
+      <c r="K59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Saurabh Arora.pdf</t>
+        </is>
+      </c>
+      <c r="B60" t="b">
+        <v>0</v>
+      </c>
+      <c r="C60" t="b">
+        <v>1</v>
+      </c>
+      <c r="D60" t="b">
+        <v>1</v>
+      </c>
+      <c r="E60" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60" t="b">
+        <v>0</v>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" t="b">
+        <v>1</v>
+      </c>
+      <c r="I60" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60" t="b">
+        <v>1</v>
+      </c>
+      <c r="K60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Saylee Raut.pdf</t>
+        </is>
+      </c>
+      <c r="B61" t="b">
+        <v>0</v>
+      </c>
+      <c r="C61" t="b">
+        <v>1</v>
+      </c>
+      <c r="D61" t="b">
+        <v>1</v>
+      </c>
+      <c r="E61" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" t="b">
+        <v>0</v>
+      </c>
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61" t="b">
+        <v>1</v>
+      </c>
+      <c r="J61" t="b">
+        <v>1</v>
+      </c>
+      <c r="K61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Selcuk Karakoc.pdf</t>
+        </is>
+      </c>
+      <c r="B62" t="b">
+        <v>0</v>
+      </c>
+      <c r="C62" t="b">
+        <v>0</v>
+      </c>
+      <c r="D62" t="b">
+        <v>1</v>
+      </c>
+      <c r="E62" t="b">
+        <v>0</v>
+      </c>
+      <c r="F62" t="b">
+        <v>0</v>
+      </c>
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="b">
+        <v>1</v>
+      </c>
+      <c r="J62" t="b">
+        <v>0</v>
+      </c>
+      <c r="K62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>SHANMUKHANAND GANGALLA.pdf</t>
+        </is>
+      </c>
+      <c r="B63" t="b">
+        <v>0</v>
+      </c>
+      <c r="C63" t="b">
+        <v>0</v>
+      </c>
+      <c r="D63" t="b">
+        <v>1</v>
+      </c>
+      <c r="E63" t="b">
+        <v>0</v>
+      </c>
+      <c r="F63" t="b">
+        <v>0</v>
+      </c>
+      <c r="G63" t="b">
+        <v>0</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="b">
+        <v>1</v>
+      </c>
+      <c r="J63" t="b">
+        <v>0</v>
+      </c>
+      <c r="K63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>SHASWAT TRIPATHI.pdf</t>
+        </is>
+      </c>
+      <c r="B64" t="b">
+        <v>0</v>
+      </c>
+      <c r="C64" t="b">
+        <v>1</v>
+      </c>
+      <c r="D64" t="b">
+        <v>1</v>
+      </c>
+      <c r="E64" t="b">
+        <v>0</v>
+      </c>
+      <c r="F64" t="b">
+        <v>0</v>
+      </c>
+      <c r="G64" t="b">
+        <v>0</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="b">
+        <v>1</v>
+      </c>
+      <c r="J64" t="b">
+        <v>0</v>
+      </c>
+      <c r="K64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Shivaleela Ishwarappa Hubli.pdf</t>
+        </is>
+      </c>
+      <c r="B65" t="b">
+        <v>0</v>
+      </c>
+      <c r="C65" t="b">
+        <v>0</v>
+      </c>
+      <c r="D65" t="b">
+        <v>1</v>
+      </c>
+      <c r="E65" t="b">
+        <v>0</v>
+      </c>
+      <c r="F65" t="b">
+        <v>0</v>
+      </c>
+      <c r="G65" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="b">
+        <v>1</v>
+      </c>
+      <c r="J65" t="b">
+        <v>1</v>
+      </c>
+      <c r="K65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Shradhit Subudhi.pdf</t>
+        </is>
+      </c>
+      <c r="B66" t="b">
+        <v>0</v>
+      </c>
+      <c r="C66" t="b">
+        <v>0</v>
+      </c>
+      <c r="D66" t="b">
+        <v>1</v>
+      </c>
+      <c r="E66" t="b">
+        <v>0</v>
+      </c>
+      <c r="F66" t="b">
+        <v>1</v>
+      </c>
+      <c r="G66" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="b">
+        <v>1</v>
+      </c>
+      <c r="J66" t="b">
+        <v>1</v>
+      </c>
+      <c r="K66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Siddhartha Shrivastava.pdf</t>
+        </is>
+      </c>
+      <c r="B67" t="b">
+        <v>0</v>
+      </c>
+      <c r="C67" t="b">
+        <v>1</v>
+      </c>
+      <c r="D67" t="b">
+        <v>1</v>
+      </c>
+      <c r="E67" t="b">
+        <v>0</v>
+      </c>
+      <c r="F67" t="b">
+        <v>0</v>
+      </c>
+      <c r="G67" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67" t="b">
+        <v>1</v>
+      </c>
+      <c r="I67" t="b">
+        <v>1</v>
+      </c>
+      <c r="J67" t="b">
+        <v>0</v>
+      </c>
+      <c r="K67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Simron Patel.pdf</t>
+        </is>
+      </c>
+      <c r="B68" t="b">
+        <v>0</v>
+      </c>
+      <c r="C68" t="b">
+        <v>1</v>
+      </c>
+      <c r="D68" t="b">
+        <v>1</v>
+      </c>
+      <c r="E68" t="b">
+        <v>0</v>
+      </c>
+      <c r="F68" t="b">
+        <v>0</v>
+      </c>
+      <c r="G68" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68" t="b">
+        <v>1</v>
+      </c>
+      <c r="K68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>SONGTAO LIU.pdf</t>
+        </is>
+      </c>
+      <c r="B69" t="b">
+        <v>0</v>
+      </c>
+      <c r="C69" t="b">
+        <v>1</v>
+      </c>
+      <c r="D69" t="b">
+        <v>0</v>
+      </c>
+      <c r="E69" t="b">
+        <v>0</v>
+      </c>
+      <c r="F69" t="b">
+        <v>0</v>
+      </c>
+      <c r="G69" t="b">
+        <v>0</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="b">
+        <v>1</v>
+      </c>
+      <c r="J69" t="b">
+        <v>0</v>
+      </c>
+      <c r="K69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Vaishu Popuri.pdf</t>
+        </is>
+      </c>
+      <c r="B70" t="b">
+        <v>0</v>
+      </c>
+      <c r="C70" t="b">
+        <v>1</v>
+      </c>
+      <c r="D70" t="b">
+        <v>0</v>
+      </c>
+      <c r="E70" t="b">
+        <v>0</v>
+      </c>
+      <c r="F70" t="b">
+        <v>0</v>
+      </c>
+      <c r="G70" t="b">
+        <v>0</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70" t="b">
+        <v>0</v>
+      </c>
+      <c r="K70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Vengadesan Nammalvar.docx</t>
+        </is>
+      </c>
+      <c r="B71" t="b">
+        <v>0</v>
+      </c>
+      <c r="C71" t="b">
+        <v>0</v>
+      </c>
+      <c r="D71" t="b">
+        <v>0</v>
+      </c>
+      <c r="E71" t="b">
+        <v>0</v>
+      </c>
+      <c r="F71" t="b">
+        <v>1</v>
+      </c>
+      <c r="G71" t="b">
+        <v>0</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="b">
+        <v>1</v>
+      </c>
+      <c r="J71" t="b">
+        <v>0</v>
+      </c>
+      <c r="K71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Vichitra Kumar.pdf</t>
+        </is>
+      </c>
+      <c r="B72" t="b">
+        <v>0</v>
+      </c>
+      <c r="C72" t="b">
+        <v>1</v>
+      </c>
+      <c r="D72" t="b">
+        <v>0</v>
+      </c>
+      <c r="E72" t="b">
+        <v>0</v>
+      </c>
+      <c r="F72" t="b">
+        <v>0</v>
+      </c>
+      <c r="G72" t="b">
+        <v>1</v>
+      </c>
+      <c r="H72" t="b">
+        <v>1</v>
+      </c>
+      <c r="I72" t="b">
+        <v>1</v>
+      </c>
+      <c r="J72" t="b">
+        <v>1</v>
+      </c>
+      <c r="K72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>VICTOR SOLIS.pdf</t>
+        </is>
+      </c>
+      <c r="B73" t="b">
+        <v>0</v>
+      </c>
+      <c r="C73" t="b">
+        <v>1</v>
+      </c>
+      <c r="D73" t="b">
+        <v>1</v>
+      </c>
+      <c r="E73" t="b">
+        <v>0</v>
+      </c>
+      <c r="F73" t="b">
+        <v>0</v>
+      </c>
+      <c r="G73" t="b">
+        <v>1</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="b">
+        <v>1</v>
+      </c>
+      <c r="J73" t="b">
+        <v>1</v>
+      </c>
+      <c r="K73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Xiaowei Bao.pdf</t>
+        </is>
+      </c>
+      <c r="B74" t="b">
+        <v>0</v>
+      </c>
+      <c r="C74" t="b">
+        <v>1</v>
+      </c>
+      <c r="D74" t="b">
+        <v>0</v>
+      </c>
+      <c r="E74" t="b">
+        <v>0</v>
+      </c>
+      <c r="F74" t="b">
+        <v>0</v>
+      </c>
+      <c r="G74" t="b">
+        <v>1</v>
+      </c>
+      <c r="H74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I74" t="b">
+        <v>1</v>
+      </c>
+      <c r="J74" t="b">
+        <v>0</v>
+      </c>
+      <c r="K74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Xin Fan.pdf</t>
+        </is>
+      </c>
+      <c r="B75" t="b">
+        <v>0</v>
+      </c>
+      <c r="C75" t="b">
+        <v>0</v>
+      </c>
+      <c r="D75" t="b">
+        <v>1</v>
+      </c>
+      <c r="E75" t="b">
+        <v>0</v>
+      </c>
+      <c r="F75" t="b">
+        <v>0</v>
+      </c>
+      <c r="G75" t="b">
+        <v>0</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="b">
+        <v>0</v>
+      </c>
+      <c r="J75" t="b">
+        <v>0</v>
+      </c>
+      <c r="K75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Xunan  Zhu.pdf</t>
+        </is>
+      </c>
+      <c r="B76" t="b">
+        <v>0</v>
+      </c>
+      <c r="C76" t="b">
+        <v>1</v>
+      </c>
+      <c r="D76" t="b">
+        <v>1</v>
+      </c>
+      <c r="E76" t="b">
+        <v>0</v>
+      </c>
+      <c r="F76" t="b">
+        <v>0</v>
+      </c>
+      <c r="G76" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="b">
+        <v>0</v>
+      </c>
+      <c r="J76" t="b">
+        <v>1</v>
+      </c>
+      <c r="K76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Yeshitla Gebre Tekeste.docx</t>
+        </is>
+      </c>
+      <c r="B77" t="b">
+        <v>0</v>
+      </c>
+      <c r="C77" t="b">
+        <v>1</v>
+      </c>
+      <c r="D77" t="b">
+        <v>1</v>
+      </c>
+      <c r="E77" t="b">
+        <v>0</v>
+      </c>
+      <c r="F77" t="b">
+        <v>1</v>
+      </c>
+      <c r="G77" t="b">
+        <v>0</v>
+      </c>
+      <c r="H77" t="b">
+        <v>1</v>
+      </c>
+      <c r="I77" t="b">
+        <v>1</v>
+      </c>
+      <c r="J77" t="b">
+        <v>0</v>
+      </c>
+      <c r="K77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Yuanhong Wei.pdf</t>
+        </is>
+      </c>
+      <c r="B78" t="b">
+        <v>0</v>
+      </c>
+      <c r="C78" t="b">
+        <v>1</v>
+      </c>
+      <c r="D78" t="b">
+        <v>0</v>
+      </c>
+      <c r="E78" t="b">
+        <v>0</v>
+      </c>
+      <c r="F78" t="b">
+        <v>0</v>
+      </c>
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78" t="b">
+        <v>1</v>
+      </c>
+      <c r="K78" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Alex/excel_output_file.xlsx
+++ b/Alex/excel_output_file.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,52 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>[solid] AND [restful] AND [oop OR object oriented]</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>[azure OR aws OR oop OR object oriented OR dependency injection]</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>[debug OR troubleshoot OR diagnose OR improve]</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>[.net] AND [c#] AND [sql] AND [azure]</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>[leadership OR mentorship]</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>[visual studio OR visual basic OR git]</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
           <t>[agile OR scrum OR ci/cd]</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>[design OR concept]</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>[github OR gitlab OR bitbucket OR jira OR asana OR trello]</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>[manage OR management OR manager] AND [project]</t>
         </is>
       </c>
     </row>
@@ -487,33 +442,6 @@
       <c r="B2" t="b">
         <v>1</v>
       </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K2" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -524,33 +452,6 @@
       <c r="B3" t="b">
         <v>0</v>
       </c>
-      <c r="C3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -559,33 +460,6 @@
         </is>
       </c>
       <c r="B4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Alex/excel_output_file.xlsx
+++ b/Alex/excel_output_file.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,32 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>[agile OR scrum OR ci/cd]</t>
+          <t>[leadership OR mentorship]</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>[design OR concept]</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>[github OR gitlab OR bitbucket OR jira OR asana OR trello]</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>[hello] AND [Im OR new]</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>[hello] AND [Im OR new]</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>[hello] AND [Im OR new]</t>
         </is>
       </c>
     </row>
@@ -442,6 +467,21 @@
       <c r="B2" t="b">
         <v>1</v>
       </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -452,6 +492,21 @@
       <c r="B3" t="b">
         <v>0</v>
       </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -460,6 +515,21 @@
         </is>
       </c>
       <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Alex/excel_output_file.xlsx
+++ b/Alex/excel_output_file.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,17 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>[oop] AND [solid OR restful]</t>
+          <t>[solid] AND [restful] AND [oop OR object oriented]</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>[leadership OR mentorship]</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>[solid] AND [restful] AND [oop OR object oriented]</t>
         </is>
       </c>
     </row>
@@ -442,6 +452,12 @@
       <c r="B2" t="b">
         <v>1</v>
       </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -452,6 +468,12 @@
       <c r="B3" t="b">
         <v>0</v>
       </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -460,6 +482,12 @@
         </is>
       </c>
       <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
         <v>1</v>
       </c>
     </row>
